--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3446.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3446.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.158142848358101</v>
+        <v>1.268183708190918</v>
       </c>
       <c r="B1">
-        <v>2.06922407668553</v>
+        <v>2.260169982910156</v>
       </c>
       <c r="C1">
-        <v>2.80723731576992</v>
+        <v>6.250511169433594</v>
       </c>
       <c r="D1">
-        <v>3.20049407830705</v>
+        <v>1.496893048286438</v>
       </c>
       <c r="E1">
-        <v>3.943376310122792</v>
+        <v>1.355165123939514</v>
       </c>
     </row>
   </sheetData>
